--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Desktop\School\Special Problems\Leaf_Segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC4974B-FCA2-4718-A523-B0635F65D2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C297161E-58FB-4299-A239-4AE1069147A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10125" yWindow="3045" windowWidth="10365" windowHeight="7875" xr2:uid="{477A1D4A-5624-4DFE-BB28-586F2299DD97}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{477A1D4A-5624-4DFE-BB28-586F2299DD97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,12 +107,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,12 +151,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,6 +522,94 @@
         <a:xfrm>
           <a:off x="0" y="37719000"/>
           <a:ext cx="6897063" cy="5439534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>277141</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5990A1-573F-21B2-9C40-6C57804A9983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29718000" y="8763000"/>
+          <a:ext cx="6563641" cy="5772956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>248535</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>115127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D3A5A1-3300-317B-1BCD-D2DBADB545FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29908500" y="15335250"/>
+          <a:ext cx="6344535" cy="5925377"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1189,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F439A547-07D7-430C-82BB-C4AFAC471EDE}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,28 +1322,28 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>63.89</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>62.206000000000003</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>64.777000000000001</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>63.183999999999997</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>65.198999999999998</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <f>AVERAGE(C2:G2)</f>
         <v>63.851199999999992</v>
       </c>
@@ -1249,26 +1352,26 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>41.646999999999998</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>48.222000000000001</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>44.76</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>42.831000000000003</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>41.759</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <f t="shared" ref="H3:H9" si="0">AVERAGE(C3:G3)</f>
         <v>43.843800000000002</v>
       </c>
@@ -1277,26 +1380,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2.9750000000000001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>2.1269999999999998</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>2.1669999999999998</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>2.2959999999999998</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>2.242</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>2.3613999999999997</v>
       </c>
@@ -1305,26 +1408,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2.4870000000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>1.9710000000000001</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>2.0169999999999999</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>2.0129999999999999</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>2.1230000000000002</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>2.1222000000000003</v>
       </c>
@@ -1333,26 +1436,26 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>49.265000000000001</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>48.46</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>47.670999999999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>51.441000000000003</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>47.098999999999997</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>48.787199999999999</v>
       </c>
@@ -1364,26 +1467,26 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>41.646999999999998</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>48.222000000000001</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>44.76</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>42.831000000000003</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>41.759</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f>AVERAGE(C7:G7)</f>
         <v>43.843800000000002</v>
       </c>
@@ -1392,26 +1495,26 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2.5539999999999998</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>2.0539999999999998</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>2.0550000000000002</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>2.0750000000000002</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>2.0139999999999998</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>2.1503999999999999</v>
       </c>
@@ -1420,26 +1523,26 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1.595</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.76</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.754</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.76200000000000001</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>0.74299999999999999</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>0.92279999999999995</v>
       </c>
@@ -1448,36 +1551,36 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>14280</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>14280</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>14280</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>14280</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>14280</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
@@ -1497,206 +1600,206 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>63.89</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>62.206000000000003</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>64.777000000000001</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>63.183999999999997</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>65.198999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>41.646999999999998</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>48.222000000000001</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>44.76</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>42.831000000000003</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>41.759</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2">
-        <v>2.9750000000000001</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2.1269999999999998</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.1669999999999998</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2.2959999999999998</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2.242</v>
+      <c r="C17" s="1">
+        <v>37.719000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>30.643999999999998</v>
+      </c>
+      <c r="E17" s="1">
+        <v>31.218</v>
+      </c>
+      <c r="F17" s="1">
+        <v>31.004999999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>37.005000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2">
-        <v>2.4870000000000001</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.9710000000000001</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2.0169999999999999</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="C18" s="4">
+        <v>28.248999999999999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>28.72</v>
+      </c>
+      <c r="E18" s="4">
+        <v>28.376000000000001</v>
+      </c>
+      <c r="F18" s="3">
         <v>2.0129999999999999</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>2.1230000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>49.265000000000001</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>48.46</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>47.670999999999999</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>51.441000000000003</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>47.098999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>41.646999999999998</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>48.222000000000001</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>44.76</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>42.831000000000003</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>41.759</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>2.5539999999999998</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>2.0539999999999998</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>2.0550000000000002</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>2.0750000000000002</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>2.0139999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>1.595</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>0.76</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>0.754</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>0.76200000000000001</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>0.74299999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>279597</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>279597</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>279597</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>279597</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>279597</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="A24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
@@ -1716,206 +1819,206 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>63.89</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>62.206000000000003</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>64.777000000000001</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>63.183999999999997</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>65.198999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2"/>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>41.646999999999998</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>48.222000000000001</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>44.76</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>42.831000000000003</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>41.759</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>2.9750000000000001</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>2.1269999999999998</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>2.1669999999999998</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>2.2959999999999998</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>2.242</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>2.4870000000000001</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>1.9710000000000001</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>2.0169999999999999</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>2.0129999999999999</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>2.1230000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>49.265000000000001</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>48.46</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>47.670999999999999</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>51.441000000000003</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>47.098999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>41.646999999999998</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>48.222000000000001</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>44.76</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>42.831000000000003</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>41.759</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>2.5539999999999998</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>2.0539999999999998</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>2.0550000000000002</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>2.0750000000000002</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>2.0139999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2"/>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>1.595</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>0.76</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>0.754</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>0.76200000000000001</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>0.74299999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="2"/>
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>14280</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>14280</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>14280</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>14280</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>14280</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="A37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1924,6 +2027,7 @@
     <mergeCell ref="A28:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1932,7 +2036,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+      <selection activeCell="AZ82" sqref="AZ82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
